--- a/ParametricGraph/test1o.xlsx
+++ b/ParametricGraph/test1o.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Прибор 1</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Оптимальное решение</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -430,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,6 +458,9 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
@@ -481,6 +487,9 @@
       <c r="B2">
         <f>7*5*10*20*3*11*9*10*11*11*2*1*2</f>
         <v>10062360000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>7</v>
